--- a/Invoice Luiz Enrike.xlsx
+++ b/Invoice Luiz Enrike.xlsx
@@ -10,10 +10,16 @@
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -394,7 +400,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
